--- a/fhir/ig/mpi/CodeSystem-CScalificacionPrevisional.xlsx
+++ b/fhir/ig/mpi/CodeSystem-CScalificacionPrevisional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ig/mpi/CodeSystem-CScalificacionPrevisional.xlsx
+++ b/fhir/ig/mpi/CodeSystem-CScalificacionPrevisional.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/CodeSystem/CScalificacionPrevisional</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/CodeSystem/CScalificacionPrevisional</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
